--- a/results/mp/logistic/corona/confidence/84/topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,33 +43,30 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -79,13 +76,16 @@
     <t>no</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>demand</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>19</t>
@@ -94,139 +94,166 @@
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>are</t>
+    <t>?</t>
   </si>
   <si>
     <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>in</t>
@@ -587,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7773972602739726</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7222222222222222</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6551724137931034</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -774,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.631578947368421</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -856,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6176470588235294</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5945945945945946</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4515503875968992</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C9">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="D9">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4509803921568628</v>
+        <v>0.4224806201550387</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>298</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1048,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1083,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4406779661016949</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0.8113207547169812</v>
@@ -1106,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4391534391534391</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C12">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.80625</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1183,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.32</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8046875</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1233,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2550335570469799</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2222222222222222</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1349206349206349</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.78125</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,38 +1383,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.07000000000000001</v>
+        <v>0.01841680129240711</v>
       </c>
       <c r="C17">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>0.17</v>
+      </c>
+      <c r="F17">
+        <v>0.83</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3038</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L17">
         <v>21</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>21</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>279</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>0.7674418604651163</v>
-      </c>
-      <c r="L17">
-        <v>33</v>
-      </c>
-      <c r="M17">
-        <v>33</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1398,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,37 +1433,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.064343163538874</v>
+        <v>0.01736111111111111</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>349</v>
+        <v>1132</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7659574468085106</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0132013201320132</v>
+        <v>0.0146295422369042</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0.44</v>
@@ -1474,19 +1501,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1498,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1506,37 +1533,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01310782241014799</v>
+        <v>0.01310228233305156</v>
       </c>
       <c r="C20">
         <v>31</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F20">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7586206896551724</v>
+        <v>0.734375</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1548,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1556,28 +1583,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01261727596247169</v>
+        <v>0.009435816787890702</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E21">
-        <v>0.29</v>
+        <v>0.62</v>
       </c>
       <c r="F21">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3052</v>
+        <v>5039</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>0.7291666666666666</v>
@@ -1606,37 +1633,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009790483649892304</v>
+        <v>0.008741258741258742</v>
       </c>
       <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>0.51</v>
+      </c>
+      <c r="F22">
+        <v>0.49</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2268</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D22">
-        <v>108</v>
-      </c>
-      <c r="E22">
-        <v>0.54</v>
-      </c>
-      <c r="F22">
-        <v>0.46</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>5057</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1648,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1656,37 +1683,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007621467132422992</v>
+        <v>0.008335027444602561</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="E23">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="F23">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3125</v>
+        <v>4878</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.7073170731707317</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1698,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1706,113 +1733,89 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0048928238583411</v>
+        <v>0.007955077211043519</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E24">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F24">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4271</v>
+        <v>4240</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K24">
-        <v>0.6441176470588236</v>
-      </c>
-      <c r="L24">
-        <v>219</v>
-      </c>
-      <c r="M24">
-        <v>219</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.004875076173065204</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>97</v>
-      </c>
-      <c r="E25">
-        <v>0.75</v>
-      </c>
-      <c r="F25">
-        <v>0.25</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>4899</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K25">
-        <v>0.6292517006802721</v>
+        <v>0.66</v>
       </c>
       <c r="L25">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.5941422594142259</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L26">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1824,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5846153846153846</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1850,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.6237288135593221</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1876,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1902,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5425531914893617</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1928,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.5280898876404494</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1954,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.3698630136986301</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1980,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.3076923076923077</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2006,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.04753199268738574</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2032,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>521</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.04166666666666666</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2058,163 +2061,163 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.02532928064842958</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L36">
         <v>25</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>962</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.02335216572504708</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2593</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.02024922118380062</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M38">
         <v>31</v>
       </c>
       <c r="N38">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1258</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.01765447667087012</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L39">
         <v>28</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N39">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1558</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.01673640167364017</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>2350</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.01636764242996538</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L41">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="N41">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="O41">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3125</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2222,25 +2225,25 @@
         <v>70</v>
       </c>
       <c r="K42">
-        <v>0.01560574948665298</v>
+        <v>0.05060240963855422</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N42">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0.21</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2248,129 +2251,389 @@
         <v>71</v>
       </c>
       <c r="K43">
-        <v>0.01537028411737308</v>
+        <v>0.05008347245409015</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="N43">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2114</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.01468222043443282</v>
+        <v>0.04036697247706422</v>
       </c>
       <c r="L44">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N44">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="O44">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>4899</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.01133919843597263</v>
+        <v>0.03350253807106599</v>
       </c>
       <c r="L45">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="N45">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="O45">
-        <v>0.46</v>
+        <v>0.11</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>5057</v>
+        <v>952</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.01040189125295508</v>
+        <v>0.025</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="N46">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>2093</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>0.02180451127819549</v>
+      </c>
+      <c r="L47">
+        <v>58</v>
+      </c>
+      <c r="M47">
+        <v>71</v>
+      </c>
+      <c r="N47">
+        <v>0.82</v>
+      </c>
+      <c r="O47">
+        <v>0.18</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48">
+        <v>0.02137279079325935</v>
+      </c>
+      <c r="L48">
+        <v>52</v>
+      </c>
+      <c r="M48">
+        <v>64</v>
+      </c>
+      <c r="N48">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49">
+        <v>0.01979264844486334</v>
+      </c>
+      <c r="L49">
+        <v>63</v>
+      </c>
+      <c r="M49">
+        <v>81</v>
+      </c>
+      <c r="N49">
+        <v>0.78</v>
+      </c>
+      <c r="O49">
+        <v>0.22</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50">
+        <v>0.0196652719665272</v>
+      </c>
+      <c r="L50">
+        <v>47</v>
+      </c>
+      <c r="M50">
+        <v>51</v>
+      </c>
+      <c r="N50">
+        <v>0.92</v>
+      </c>
+      <c r="O50">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K51">
+        <v>0.01954602774274905</v>
+      </c>
+      <c r="L51">
+        <v>31</v>
+      </c>
+      <c r="M51">
+        <v>39</v>
+      </c>
+      <c r="N51">
+        <v>0.79</v>
+      </c>
+      <c r="O51">
+        <v>0.21</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52">
+        <v>0.01553985872855701</v>
+      </c>
+      <c r="L52">
+        <v>77</v>
+      </c>
+      <c r="M52">
+        <v>118</v>
+      </c>
+      <c r="N52">
+        <v>0.65</v>
+      </c>
+      <c r="O52">
+        <v>0.35</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>4878</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53">
+        <v>0.01524330662497557</v>
+      </c>
+      <c r="L53">
+        <v>78</v>
+      </c>
+      <c r="M53">
+        <v>126</v>
+      </c>
+      <c r="N53">
+        <v>0.62</v>
+      </c>
+      <c r="O53">
+        <v>0.38</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K54">
+        <v>0.01445221445221445</v>
+      </c>
+      <c r="L54">
+        <v>31</v>
+      </c>
+      <c r="M54">
+        <v>44</v>
+      </c>
+      <c r="N54">
+        <v>0.7</v>
+      </c>
+      <c r="O54">
+        <v>0.3</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K47">
-        <v>0.008358486185279778</v>
-      </c>
-      <c r="L47">
-        <v>36</v>
-      </c>
-      <c r="M47">
-        <v>57</v>
-      </c>
-      <c r="N47">
-        <v>0.63</v>
-      </c>
-      <c r="O47">
-        <v>0.37</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>4271</v>
+      <c r="K55">
+        <v>0.01257568700512343</v>
+      </c>
+      <c r="L55">
+        <v>54</v>
+      </c>
+      <c r="M55">
+        <v>88</v>
+      </c>
+      <c r="N55">
+        <v>0.61</v>
+      </c>
+      <c r="O55">
+        <v>0.39</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>55</v>
+      </c>
+      <c r="N56">
+        <v>0.44</v>
+      </c>
+      <c r="O56">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57">
+        <v>0.009174311926605505</v>
+      </c>
+      <c r="L57">
+        <v>21</v>
+      </c>
+      <c r="M57">
+        <v>41</v>
+      </c>
+      <c r="N57">
+        <v>0.51</v>
+      </c>
+      <c r="O57">
+        <v>0.49</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2268</v>
       </c>
     </row>
   </sheetData>
